--- a/BackTest/2020-01-13 BackTest XRP.xlsx
+++ b/BackTest/2020-01-13 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,10 +484,14 @@
         <v>219932.1391000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>237.3</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,7 +521,7 @@
         <v>219932.1391000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>237.3</v>
@@ -525,7 +529,11 @@
       <c r="J4" t="n">
         <v>237.3</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +562,7 @@
         <v>219932.1391000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>237.3</v>
@@ -595,7 +603,7 @@
         <v>235932.1391000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>237.3</v>
@@ -603,132 +611,130 @@
       <c r="J6" t="n">
         <v>237.3</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>239</v>
+      </c>
+      <c r="D7" t="n">
+        <v>239</v>
+      </c>
+      <c r="E7" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>166266.3363</v>
+      </c>
+      <c r="G7" t="n">
+        <v>402198.4754000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>238</v>
+      </c>
+      <c r="J7" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>237.9</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>239.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>239.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>239.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>239.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>54496.3384</v>
+      </c>
+      <c r="G8" t="n">
+        <v>456694.8138000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>239</v>
       </c>
-      <c r="D7" t="n">
-        <v>239</v>
-      </c>
-      <c r="E7" t="n">
-        <v>237.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>166266.3363</v>
-      </c>
-      <c r="G7" t="n">
-        <v>402198.4754000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>238</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>237.3</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>239.2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>239.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>239.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>203516.8982</v>
+      </c>
+      <c r="G9" t="n">
+        <v>660211.7120000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>239.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>239.1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>239.2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>239.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>239.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>54496.3384</v>
-      </c>
-      <c r="G8" t="n">
-        <v>456694.8138000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>239</v>
-      </c>
-      <c r="J8" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>239.2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>239.4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>239.2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>203516.8982</v>
-      </c>
-      <c r="G9" t="n">
-        <v>660211.7120000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,9 +763,11 @@
         <v>660211.7120000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>239.3</v>
+      </c>
       <c r="J10" t="n">
         <v>237.3</v>
       </c>
@@ -2122,7 +2130,7 @@
         <v>4630226.56470144</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
@@ -2161,7 +2169,7 @@
         <v>4630226.56470144</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
@@ -2200,7 +2208,7 @@
         <v>4571259.32240144</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
@@ -2239,7 +2247,7 @@
         <v>4320137.62980144</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
@@ -2278,7 +2286,7 @@
         <v>4358540.95900144</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
@@ -2317,7 +2325,7 @@
         <v>4418352.14860144</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
@@ -2629,7 +2637,7 @@
         <v>4260399.05082121</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
@@ -2707,7 +2715,7 @@
         <v>4260650.40542121</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
@@ -2746,7 +2754,7 @@
         <v>4260650.40542121</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
@@ -2785,7 +2793,7 @@
         <v>4225978.662921211</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
@@ -2824,7 +2832,7 @@
         <v>4184432.429921211</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
@@ -2863,7 +2871,7 @@
         <v>4108634.386021211</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
@@ -2871,11 +2879,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>1.024077117572693</v>
       </c>
       <c r="M64" t="inlineStr"/>
     </row>
@@ -2902,17 +2910,11 @@
         <v>4132789.116121211</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2941,17 +2943,11 @@
         <v>4054272.423321211</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2980,17 +2976,11 @@
         <v>4020880.535321211</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3019,17 +3009,11 @@
         <v>4020880.535321211</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3061,14 +3045,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3100,14 +3078,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3139,14 +3111,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3178,14 +3144,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3217,14 +3177,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3256,14 +3210,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3295,14 +3243,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3334,14 +3276,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3373,14 +3309,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3412,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3451,14 +3375,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3490,14 +3408,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3529,14 +3441,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3568,14 +3474,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3607,14 +3507,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3646,14 +3540,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3685,14 +3573,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3724,14 +3606,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3763,14 +3639,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3802,14 +3672,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3841,14 +3705,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3877,17 +3735,11 @@
         <v>4145612.203746541</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3916,17 +3768,11 @@
         <v>4100518.169646542</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3955,17 +3801,11 @@
         <v>4100518.169646542</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3994,17 +3834,11 @@
         <v>4065324.016746541</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4033,17 +3867,11 @@
         <v>4065324.016746541</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4072,17 +3900,11 @@
         <v>4081554.729646542</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4111,17 +3933,11 @@
         <v>3968415.758815402</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4150,17 +3966,11 @@
         <v>3861594.744515402</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4189,17 +3999,11 @@
         <v>3861594.744515402</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4228,17 +4032,11 @@
         <v>3879337.052815402</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4267,17 +4065,11 @@
         <v>3894085.349915402</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4306,17 +4098,11 @@
         <v>3891470.673015402</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4345,17 +4131,11 @@
         <v>3891470.673015402</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4384,17 +4164,11 @@
         <v>3738104.656315402</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4423,17 +4197,11 @@
         <v>3650619.689515402</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4462,17 +4230,11 @@
         <v>3659848.655215402</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4501,17 +4263,11 @@
         <v>3659848.655215402</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4540,17 +4296,11 @@
         <v>3664321.389915402</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4582,14 +4332,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4621,14 +4365,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4660,14 +4398,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4699,14 +4431,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4735,17 +4461,11 @@
         <v>3654945.184342262</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4777,14 +4497,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4816,14 +4530,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4855,14 +4563,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4894,14 +4596,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4933,14 +4629,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4972,14 +4662,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5011,14 +4695,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5050,14 +4728,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5089,14 +4761,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5128,14 +4794,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5167,14 +4827,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5206,14 +4860,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5245,14 +4893,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5284,14 +4926,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5323,14 +4959,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5362,14 +4992,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5401,14 +5025,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5440,14 +5058,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5479,14 +5091,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5518,14 +5124,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5557,14 +5157,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5596,14 +5190,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5635,14 +5223,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5674,14 +5256,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5713,14 +5289,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5752,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5791,14 +5355,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5830,14 +5388,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5869,14 +5421,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5908,14 +5454,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5947,14 +5487,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5986,14 +5520,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6025,14 +5553,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6064,14 +5586,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6103,14 +5619,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6142,14 +5652,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6178,19 +5682,13 @@
         <v>3879992.385340573</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>1.026605562579014</v>
+        <v>1</v>
       </c>
       <c r="M149" t="inlineStr"/>
     </row>
@@ -6217,7 +5715,7 @@
         <v>3879992.385340573</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6250,7 +5748,7 @@
         <v>3879999.708240573</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6349,7 +5847,7 @@
         <v>3869945.619940573</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6382,7 +5880,7 @@
         <v>3869933.380640573</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6415,7 +5913,7 @@
         <v>3870933.380640573</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6448,7 +5946,7 @@
         <v>3869832.037040573</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6481,7 +5979,7 @@
         <v>3813337.122740573</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6514,7 +6012,7 @@
         <v>3836540.333040573</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6547,7 +6045,7 @@
         <v>4087623.436040573</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6580,7 +6078,7 @@
         <v>4087623.436040573</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6613,7 +6111,7 @@
         <v>4089996.233840573</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6646,7 +6144,7 @@
         <v>4074740.568740573</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6679,7 +6177,7 @@
         <v>4074745.788740573</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6712,7 +6210,7 @@
         <v>4063425.732040573</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6745,7 +6243,7 @@
         <v>4063425.732040573</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6778,7 +6276,7 @@
         <v>3949317.294640573</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6811,7 +6309,7 @@
         <v>3959730.297040573</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6844,7 +6342,7 @@
         <v>4037352.125447523</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6877,7 +6375,7 @@
         <v>4100377.224740573</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6910,7 +6408,7 @@
         <v>4201064.244740573</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6943,7 +6441,7 @@
         <v>4248850.501740573</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6976,7 +6474,7 @@
         <v>4222814.040540573</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7009,7 +6507,7 @@
         <v>4303936.122540574</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7042,7 +6540,7 @@
         <v>4303392.569140574</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7075,7 +6573,7 @@
         <v>4254442.560340574</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7108,7 +6606,7 @@
         <v>4200219.164240574</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7174,7 +6672,7 @@
         <v>4225026.981740574</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7207,7 +6705,7 @@
         <v>4228528.032040575</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7240,7 +6738,7 @@
         <v>4199919.846440574</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7273,7 +6771,7 @@
         <v>4200908.707200064</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7306,7 +6804,7 @@
         <v>4133888.656300064</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7339,7 +6837,7 @@
         <v>4133888.656300064</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7372,7 +6870,7 @@
         <v>4133888.656300064</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7405,7 +6903,7 @@
         <v>4132177.367400064</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7438,7 +6936,7 @@
         <v>4143996.137600064</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7471,7 +6969,7 @@
         <v>4140662.837600064</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7504,7 +7002,7 @@
         <v>4057792.575500065</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7537,7 +7035,7 @@
         <v>4056773.312700064</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7570,7 +7068,7 @@
         <v>4077500.709700064</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7603,7 +7101,7 @@
         <v>4079295.158300064</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7636,7 +7134,7 @@
         <v>4060557.335100064</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7669,7 +7167,7 @@
         <v>4158658.277400064</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7702,7 +7200,7 @@
         <v>4153118.707500064</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7735,7 +7233,7 @@
         <v>4153118.707500064</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7768,7 +7266,7 @@
         <v>4142552.002700064</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7801,7 +7299,7 @@
         <v>4143284.329400064</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7834,7 +7332,7 @@
         <v>4157799.805800064</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7867,7 +7365,7 @@
         <v>3880428.894700064</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7900,7 +7398,7 @@
         <v>3879566.401600064</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7933,7 +7431,7 @@
         <v>3892066.401600064</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7966,7 +7464,7 @@
         <v>3892066.401600064</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8065,7 +7563,7 @@
         <v>3900169.144300064</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8263,7 +7761,7 @@
         <v>3890458.664200064</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8296,7 +7794,7 @@
         <v>3906353.837400064</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8329,7 +7827,7 @@
         <v>3905991.400400064</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8362,7 +7860,7 @@
         <v>3934211.022900064</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8395,7 +7893,7 @@
         <v>3943597.477500064</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8428,7 +7926,7 @@
         <v>3993549.650700064</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8461,7 +7959,7 @@
         <v>4013119.873105344</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8494,7 +7992,7 @@
         <v>4022585.029905344</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8527,7 +8025,7 @@
         <v>4020626.909905344</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8560,7 +8058,7 @@
         <v>4020626.909905344</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8593,7 +8091,7 @@
         <v>4020614.909905344</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8626,7 +8124,7 @@
         <v>4020614.909905344</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8659,7 +8157,7 @@
         <v>4020614.909905344</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8692,7 +8190,7 @@
         <v>4010391.728105344</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8725,7 +8223,7 @@
         <v>4014448.696405344</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8758,7 +8256,7 @@
         <v>3998758.195305344</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8791,7 +8289,7 @@
         <v>3998758.195305344</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8824,7 +8322,7 @@
         <v>4108441.916405344</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8857,7 +8355,7 @@
         <v>4160161.760205344</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8890,7 +8388,7 @@
         <v>4157663.988105344</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8923,7 +8421,7 @@
         <v>4157663.988105344</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8956,7 +8454,7 @@
         <v>4151368.634305344</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8989,7 +8487,7 @@
         <v>4151368.634305344</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9022,7 +8520,7 @@
         <v>4166234.424105344</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9055,7 +8553,7 @@
         <v>4166234.424105344</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9088,7 +8586,7 @@
         <v>4166234.424105344</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9121,7 +8619,7 @@
         <v>4152691.476105344</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9154,7 +8652,7 @@
         <v>4124889.554652524</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9187,7 +8685,7 @@
         <v>4050880.109052524</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9220,7 +8718,7 @@
         <v>3883723.524152524</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9253,7 +8751,7 @@
         <v>3883723.524152524</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9286,7 +8784,7 @@
         <v>3883723.524152524</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9319,7 +8817,7 @@
         <v>3883608.769252524</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9352,7 +8850,7 @@
         <v>3880766.309652524</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9385,7 +8883,7 @@
         <v>3880766.309652524</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9418,7 +8916,7 @@
         <v>3933216.163052524</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9451,7 +8949,7 @@
         <v>4119326.585652524</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9484,7 +8982,7 @@
         <v>4271465.994852523</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9517,7 +9015,7 @@
         <v>4271465.994852523</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9550,7 +9048,7 @@
         <v>4266091.866552523</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9583,7 +9081,7 @@
         <v>4265884.247152523</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9715,7 +9213,7 @@
         <v>4272033.650152523</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9748,7 +9246,7 @@
         <v>4270593.730052523</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9781,7 +9279,7 @@
         <v>4251198.194552523</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9814,7 +9312,7 @@
         <v>4252231.110852523</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9847,7 +9345,7 @@
         <v>4252227.025852523</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9913,7 +9411,7 @@
         <v>4239629.088952523</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10111,7 +9609,7 @@
         <v>4241616.593999113</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10144,7 +9642,7 @@
         <v>4249016.593999113</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10177,7 +9675,7 @@
         <v>4249371.675199113</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10210,7 +9708,7 @@
         <v>4217562.237099113</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10243,7 +9741,7 @@
         <v>4217519.273899113</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10276,7 +9774,7 @@
         <v>4224422.315499113</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10309,7 +9807,7 @@
         <v>4233646.165299113</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10342,7 +9840,7 @@
         <v>4220059.485499113</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10375,7 +9873,7 @@
         <v>4220059.485499113</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10408,7 +9906,7 @@
         <v>4219657.265199113</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10441,7 +9939,7 @@
         <v>4219657.265199113</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10474,7 +9972,7 @@
         <v>4225430.142299113</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10507,7 +10005,7 @@
         <v>4223291.895999113</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10540,7 +10038,7 @@
         <v>4223291.895999113</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10573,7 +10071,7 @@
         <v>4235330.017999114</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10606,7 +10104,7 @@
         <v>4232149.056399113</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10639,7 +10137,7 @@
         <v>4226681.052999114</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10672,7 +10170,7 @@
         <v>4226681.052999114</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10705,7 +10203,7 @@
         <v>4216668.899599114</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10738,7 +10236,7 @@
         <v>4293183.505599113</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10771,7 +10269,7 @@
         <v>4267834.477299113</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10804,7 +10302,7 @@
         <v>4267834.477299113</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10837,7 +10335,7 @@
         <v>4267527.735899113</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10870,7 +10368,7 @@
         <v>4267527.735899113</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10903,7 +10401,7 @@
         <v>4278468.846799113</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10936,7 +10434,7 @@
         <v>4278468.846799113</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10969,7 +10467,7 @@
         <v>4278468.846799113</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11002,7 +10500,7 @@
         <v>4275486.816599113</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11035,7 +10533,7 @@
         <v>4308707.580638633</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11068,7 +10566,7 @@
         <v>4705013.249438633</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11101,7 +10599,7 @@
         <v>4705013.249438633</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11134,7 +10632,7 @@
         <v>4760782.776638634</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11167,7 +10665,7 @@
         <v>4780579.494038634</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11398,7 +10896,7 @@
         <v>4447417.514287574</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11431,7 +10929,7 @@
         <v>4444312.744287575</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11464,7 +10962,7 @@
         <v>4456607.281687574</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11497,7 +10995,7 @@
         <v>4397916.239887575</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11563,7 +11061,7 @@
         <v>4160487.916387575</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -26182,7 +25680,7 @@
         <v>4119876.252812414</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26215,7 +25713,7 @@
         <v>4160241.428812414</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26248,7 +25746,7 @@
         <v>4160241.428812414</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26281,7 +25779,7 @@
         <v>4532953.452512414</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26314,7 +25812,7 @@
         <v>4552457.280112415</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26347,7 +25845,7 @@
         <v>4449465.474334785</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26380,7 +25878,7 @@
         <v>4718158.703678275</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26413,7 +25911,7 @@
         <v>4718158.703678275</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26446,7 +25944,7 @@
         <v>4803452.435478275</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26479,7 +25977,7 @@
         <v>5129685.039578275</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26512,7 +26010,7 @@
         <v>5364843.862978275</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26545,7 +26043,7 @@
         <v>5106611.518978275</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26578,7 +26076,7 @@
         <v>5152755.784178276</v>
       </c>
       <c r="H767" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26611,7 +26109,7 @@
         <v>5218505.701678276</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26644,7 +26142,7 @@
         <v>4955332.136178276</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26677,7 +26175,7 @@
         <v>4824072.850368045</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26710,7 +26208,7 @@
         <v>4838430.749568045</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26743,7 +26241,7 @@
         <v>4838811.232368045</v>
       </c>
       <c r="H772" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26776,7 +26274,7 @@
         <v>4836583.751968046</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26809,7 +26307,7 @@
         <v>4828105.473568046</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26842,7 +26340,7 @@
         <v>4810519.613549986</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26941,7 +26439,7 @@
         <v>4957975.791631926</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -29614,7 +29112,7 @@
         <v>5125728.262191039</v>
       </c>
       <c r="H859" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -29647,7 +29145,7 @@
         <v>5117944.775691039</v>
       </c>
       <c r="H860" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -29680,7 +29178,7 @@
         <v>5060683.430691039</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -29713,7 +29211,7 @@
         <v>5060683.430691039</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30043,7 +29541,7 @@
         <v>4917727.035791039</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30076,7 +29574,7 @@
         <v>4918013.275391039</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30901,7 +30399,7 @@
         <v>4859387.417591859</v>
       </c>
       <c r="H898" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30967,7 +30465,7 @@
         <v>4848456.016191859</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -31000,7 +30498,7 @@
         <v>4848557.016191859</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31033,7 +30531,7 @@
         <v>4850050.496604219</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31561,7 +31059,7 @@
         <v>5027620.193291859</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -31825,7 +31323,7 @@
         <v>4843663.95909186</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -31858,7 +31356,7 @@
         <v>4726689.47439186</v>
       </c>
       <c r="H927" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -40108,7 +39606,7 @@
         <v>3528867.107575412</v>
       </c>
       <c r="H1177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -40339,7 +39837,7 @@
         <v>3816303.460532152</v>
       </c>
       <c r="H1184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -40372,7 +39870,7 @@
         <v>4033465.228032152</v>
       </c>
       <c r="H1185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
@@ -40405,7 +39903,7 @@
         <v>3893725.306332152</v>
       </c>
       <c r="H1186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
@@ -40438,7 +39936,7 @@
         <v>3841374.242332152</v>
       </c>
       <c r="H1187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
@@ -40471,7 +39969,7 @@
         <v>3854554.732932152</v>
       </c>
       <c r="H1188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
@@ -40504,7 +40002,7 @@
         <v>3854554.732932152</v>
       </c>
       <c r="H1189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
@@ -40537,7 +40035,7 @@
         <v>3854554.732932152</v>
       </c>
       <c r="H1190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
@@ -40570,7 +40068,7 @@
         <v>3854554.732932152</v>
       </c>
       <c r="H1191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
@@ -40801,7 +40299,7 @@
         <v>4153593.700781722</v>
       </c>
       <c r="H1198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -41571,6 +41069,6 @@
       <c r="M1221" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest XRP.xlsx
+++ b/BackTest/2020-01-13 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -681,11 +681,9 @@
         <v>456694.8138000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>237.3</v>
       </c>
@@ -722,19 +720,11 @@
         <v>660211.7120000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>239.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,19 +753,11 @@
         <v>660211.7120000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -807,14 +789,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -846,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -885,14 +855,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -924,14 +888,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -963,14 +921,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1002,14 +954,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1041,14 +987,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1080,14 +1020,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1119,14 +1053,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1158,14 +1086,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1197,14 +1119,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1236,14 +1152,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1275,14 +1185,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1314,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1353,14 +1251,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1392,14 +1284,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1428,17 +1314,11 @@
         <v>2099576.1447</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1467,17 +1347,11 @@
         <v>2315970.783799999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1506,17 +1380,11 @@
         <v>2186128.544999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1545,17 +1413,11 @@
         <v>2231542.714199999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1584,17 +1446,11 @@
         <v>2620320.626599999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1623,17 +1479,11 @@
         <v>2407286.512899999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1662,17 +1512,11 @@
         <v>2908432.748499999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1701,17 +1545,11 @@
         <v>2941950.426499999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1740,17 +1578,11 @@
         <v>3074661.455199999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1779,17 +1611,11 @@
         <v>3584186.622899999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1821,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1860,14 +1680,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1899,14 +1713,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1938,14 +1746,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1977,14 +1779,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2016,14 +1812,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2055,14 +1845,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2094,14 +1878,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2133,14 +1911,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2172,14 +1944,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2211,14 +1977,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2250,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2289,14 +2043,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2328,14 +2076,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2367,14 +2109,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2406,14 +2142,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2445,14 +2175,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2484,14 +2208,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2523,14 +2241,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2562,14 +2274,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2601,14 +2307,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2640,14 +2340,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2679,14 +2373,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2718,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2757,14 +2439,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2796,14 +2472,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2835,14 +2505,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2871,19 +2535,13 @@
         <v>4108634.386021211</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>1.024077117572693</v>
+        <v>1</v>
       </c>
       <c r="M64" t="inlineStr"/>
     </row>
@@ -2910,7 +2568,7 @@
         <v>4132789.116121211</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2943,7 +2601,7 @@
         <v>4054272.423321211</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2976,7 +2634,7 @@
         <v>4020880.535321211</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3042,7 +2700,7 @@
         <v>4065153.710121211</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3075,7 +2733,7 @@
         <v>4059526.049421211</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3735,7 +3393,7 @@
         <v>4145612.203746541</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3768,7 +3426,7 @@
         <v>4100518.169646542</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3801,7 +3459,7 @@
         <v>4100518.169646542</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3834,7 +3492,7 @@
         <v>4065324.016746541</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3867,7 +3525,7 @@
         <v>4065324.016746541</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3900,7 +3558,7 @@
         <v>4081554.729646542</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3933,7 +3591,7 @@
         <v>3968415.758815402</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3966,7 +3624,7 @@
         <v>3861594.744515402</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3999,7 +3657,7 @@
         <v>3861594.744515402</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4032,7 +3690,7 @@
         <v>3879337.052815402</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4065,7 +3723,7 @@
         <v>3894085.349915402</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4098,7 +3756,7 @@
         <v>3891470.673015402</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4131,7 +3789,7 @@
         <v>3891470.673015402</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4164,7 +3822,7 @@
         <v>3738104.656315402</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4197,7 +3855,7 @@
         <v>3650619.689515402</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4230,7 +3888,7 @@
         <v>3659848.655215402</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4263,7 +3921,7 @@
         <v>3659848.655215402</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4296,7 +3954,7 @@
         <v>3664321.389915402</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4461,7 +4119,7 @@
         <v>3654945.184342262</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -5682,7 +5340,7 @@
         <v>3879992.385340573</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5715,7 +5373,7 @@
         <v>3879992.385340573</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5847,7 +5505,7 @@
         <v>3869945.619940573</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5880,7 +5538,7 @@
         <v>3869933.380640573</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5913,7 +5571,7 @@
         <v>3870933.380640573</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5946,7 +5604,7 @@
         <v>3869832.037040573</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5979,7 +5637,7 @@
         <v>3813337.122740573</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6012,7 +5670,7 @@
         <v>3836540.333040573</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6045,7 +5703,7 @@
         <v>4087623.436040573</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6078,7 +5736,7 @@
         <v>4087623.436040573</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6111,7 +5769,7 @@
         <v>4089996.233840573</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6144,7 +5802,7 @@
         <v>4074740.568740573</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6177,7 +5835,7 @@
         <v>4074745.788740573</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6210,7 +5868,7 @@
         <v>4063425.732040573</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6243,7 +5901,7 @@
         <v>4063425.732040573</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6276,7 +5934,7 @@
         <v>3949317.294640573</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6309,7 +5967,7 @@
         <v>3959730.297040573</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6342,7 +6000,7 @@
         <v>4037352.125447523</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6375,7 +6033,7 @@
         <v>4100377.224740573</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6408,7 +6066,7 @@
         <v>4201064.244740573</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6441,7 +6099,7 @@
         <v>4248850.501740573</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6474,7 +6132,7 @@
         <v>4222814.040540573</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6507,7 +6165,7 @@
         <v>4303936.122540574</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6540,7 +6198,7 @@
         <v>4303392.569140574</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6573,7 +6231,7 @@
         <v>4254442.560340574</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6606,7 +6264,7 @@
         <v>4200219.164240574</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6672,7 +6330,7 @@
         <v>4225026.981740574</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6705,7 +6363,7 @@
         <v>4228528.032040575</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6738,7 +6396,7 @@
         <v>4199919.846440574</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6771,7 +6429,7 @@
         <v>4200908.707200064</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6804,7 +6462,7 @@
         <v>4133888.656300064</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6837,7 +6495,7 @@
         <v>4133888.656300064</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6870,7 +6528,7 @@
         <v>4133888.656300064</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6903,7 +6561,7 @@
         <v>4132177.367400064</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6936,7 +6594,7 @@
         <v>4143996.137600064</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6969,7 +6627,7 @@
         <v>4140662.837600064</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7002,7 +6660,7 @@
         <v>4057792.575500065</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7035,7 +6693,7 @@
         <v>4056773.312700064</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7068,7 +6726,7 @@
         <v>4077500.709700064</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7101,7 +6759,7 @@
         <v>4079295.158300064</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7134,7 +6792,7 @@
         <v>4060557.335100064</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7167,7 +6825,7 @@
         <v>4158658.277400064</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7200,7 +6858,7 @@
         <v>4153118.707500064</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7233,7 +6891,7 @@
         <v>4153118.707500064</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7266,7 +6924,7 @@
         <v>4142552.002700064</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7299,7 +6957,7 @@
         <v>4143284.329400064</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7332,7 +6990,7 @@
         <v>4157799.805800064</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7365,7 +7023,7 @@
         <v>3880428.894700064</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7398,7 +7056,7 @@
         <v>3879566.401600064</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7431,7 +7089,7 @@
         <v>3892066.401600064</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7464,7 +7122,7 @@
         <v>3892066.401600064</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7563,7 +7221,7 @@
         <v>3900169.144300064</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7761,7 +7419,7 @@
         <v>3890458.664200064</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7794,7 +7452,7 @@
         <v>3906353.837400064</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7827,7 +7485,7 @@
         <v>3905991.400400064</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7860,7 +7518,7 @@
         <v>3934211.022900064</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7893,7 +7551,7 @@
         <v>3943597.477500064</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7926,7 +7584,7 @@
         <v>3993549.650700064</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7959,7 +7617,7 @@
         <v>4013119.873105344</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7992,7 +7650,7 @@
         <v>4022585.029905344</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8025,7 +7683,7 @@
         <v>4020626.909905344</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8058,7 +7716,7 @@
         <v>4020626.909905344</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8091,7 +7749,7 @@
         <v>4020614.909905344</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8124,7 +7782,7 @@
         <v>4020614.909905344</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8157,7 +7815,7 @@
         <v>4020614.909905344</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8190,7 +7848,7 @@
         <v>4010391.728105344</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8223,7 +7881,7 @@
         <v>4014448.696405344</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8256,7 +7914,7 @@
         <v>3998758.195305344</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8289,7 +7947,7 @@
         <v>3998758.195305344</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8322,7 +7980,7 @@
         <v>4108441.916405344</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8355,7 +8013,7 @@
         <v>4160161.760205344</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8388,7 +8046,7 @@
         <v>4157663.988105344</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8421,7 +8079,7 @@
         <v>4157663.988105344</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8454,7 +8112,7 @@
         <v>4151368.634305344</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8487,7 +8145,7 @@
         <v>4151368.634305344</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8520,7 +8178,7 @@
         <v>4166234.424105344</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8553,7 +8211,7 @@
         <v>4166234.424105344</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8586,7 +8244,7 @@
         <v>4166234.424105344</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8619,7 +8277,7 @@
         <v>4152691.476105344</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8652,7 +8310,7 @@
         <v>4124889.554652524</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8685,7 +8343,7 @@
         <v>4050880.109052524</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8718,7 +8376,7 @@
         <v>3883723.524152524</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8751,7 +8409,7 @@
         <v>3883723.524152524</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8784,7 +8442,7 @@
         <v>3883723.524152524</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8817,7 +8475,7 @@
         <v>3883608.769252524</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8850,7 +8508,7 @@
         <v>3880766.309652524</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8883,7 +8541,7 @@
         <v>3880766.309652524</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8916,7 +8574,7 @@
         <v>3933216.163052524</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8949,7 +8607,7 @@
         <v>4119326.585652524</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8982,7 +8640,7 @@
         <v>4271465.994852523</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9015,7 +8673,7 @@
         <v>4271465.994852523</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9048,7 +8706,7 @@
         <v>4266091.866552523</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9081,7 +8739,7 @@
         <v>4265884.247152523</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9213,7 +8871,7 @@
         <v>4272033.650152523</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9246,7 +8904,7 @@
         <v>4270593.730052523</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9279,7 +8937,7 @@
         <v>4251198.194552523</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9312,7 +8970,7 @@
         <v>4252231.110852523</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9345,7 +9003,7 @@
         <v>4252227.025852523</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9411,7 +9069,7 @@
         <v>4239629.088952523</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9609,7 +9267,7 @@
         <v>4241616.593999113</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9642,7 +9300,7 @@
         <v>4249016.593999113</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9675,7 +9333,7 @@
         <v>4249371.675199113</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9708,7 +9366,7 @@
         <v>4217562.237099113</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9741,7 +9399,7 @@
         <v>4217519.273899113</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9774,7 +9432,7 @@
         <v>4224422.315499113</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9807,7 +9465,7 @@
         <v>4233646.165299113</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9840,7 +9498,7 @@
         <v>4220059.485499113</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9873,7 +9531,7 @@
         <v>4220059.485499113</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9906,7 +9564,7 @@
         <v>4219657.265199113</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9939,7 +9597,7 @@
         <v>4219657.265199113</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9972,7 +9630,7 @@
         <v>4225430.142299113</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10005,7 +9663,7 @@
         <v>4223291.895999113</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10038,7 +9696,7 @@
         <v>4223291.895999113</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10071,7 +9729,7 @@
         <v>4235330.017999114</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10104,7 +9762,7 @@
         <v>4232149.056399113</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10137,7 +9795,7 @@
         <v>4226681.052999114</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10170,7 +9828,7 @@
         <v>4226681.052999114</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10203,7 +9861,7 @@
         <v>4216668.899599114</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10236,7 +9894,7 @@
         <v>4293183.505599113</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10269,7 +9927,7 @@
         <v>4267834.477299113</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10302,7 +9960,7 @@
         <v>4267834.477299113</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10335,7 +9993,7 @@
         <v>4267527.735899113</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10368,7 +10026,7 @@
         <v>4267527.735899113</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10401,7 +10059,7 @@
         <v>4278468.846799113</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10434,7 +10092,7 @@
         <v>4278468.846799113</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10467,7 +10125,7 @@
         <v>4278468.846799113</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10500,7 +10158,7 @@
         <v>4275486.816599113</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10533,7 +10191,7 @@
         <v>4308707.580638633</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10566,7 +10224,7 @@
         <v>4705013.249438633</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10599,7 +10257,7 @@
         <v>4705013.249438633</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10632,7 +10290,7 @@
         <v>4760782.776638634</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10665,7 +10323,7 @@
         <v>4780579.494038634</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10896,7 +10554,7 @@
         <v>4447417.514287574</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10929,7 +10587,7 @@
         <v>4444312.744287575</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10962,7 +10620,7 @@
         <v>4456607.281687574</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10995,7 +10653,7 @@
         <v>4397916.239887575</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11061,7 +10719,7 @@
         <v>4160487.916387575</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12876,7 +12534,7 @@
         <v>3370634.322705695</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12909,7 +12567,7 @@
         <v>3370634.322705695</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12942,7 +12600,7 @@
         <v>3370406.322705695</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12975,7 +12633,7 @@
         <v>3332916.122505695</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13008,7 +12666,7 @@
         <v>3345054.628205695</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13041,7 +12699,7 @@
         <v>3347827.338805695</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13206,7 +12864,7 @@
         <v>3333547.166705695</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13239,7 +12897,7 @@
         <v>3334957.100605695</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13272,7 +12930,7 @@
         <v>3334957.100605695</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13305,7 +12963,7 @@
         <v>3295394.515205695</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -23106,7 +22764,7 @@
         <v>3766670.295978584</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26703,7 +26361,7 @@
         <v>5091171.305331926</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -41069,6 +40727,6 @@
       <c r="M1221" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest XRP.xlsx
+++ b/BackTest/2020-01-13 BackTest XRP.xlsx
@@ -484,14 +484,10 @@
         <v>219932.1391000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>237.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -529,11 +525,7 @@
       <c r="J4" t="n">
         <v>237.3</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -611,7 +603,11 @@
       <c r="J6" t="n">
         <v>237.3</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -650,7 +646,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -681,15 +677,17 @@
         <v>456694.8138000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>239</v>
+      </c>
       <c r="J8" t="n">
         <v>237.3</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -720,11 +718,19 @@
         <v>660211.7120000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>239.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -756,8 +762,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -789,8 +801,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -822,8 +840,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -855,8 +879,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -888,8 +918,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -921,8 +957,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -954,8 +996,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -987,8 +1035,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1020,8 +1074,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1053,8 +1113,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1086,8 +1152,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1119,8 +1191,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1152,8 +1230,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1185,8 +1269,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1218,8 +1308,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1251,8 +1347,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1284,8 +1386,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1314,11 +1422,17 @@
         <v>2099576.1447</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1347,11 +1461,17 @@
         <v>2315970.783799999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1380,11 +1500,17 @@
         <v>2186128.544999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1413,11 +1539,17 @@
         <v>2231542.714199999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1446,11 +1578,17 @@
         <v>2620320.626599999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1479,11 +1617,17 @@
         <v>2407286.512899999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1512,11 +1656,17 @@
         <v>2908432.748499999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1545,11 +1695,17 @@
         <v>2941950.426499999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1578,11 +1734,17 @@
         <v>3074661.455199999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1611,11 +1773,17 @@
         <v>3584186.622899999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1647,8 +1815,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1680,8 +1854,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1713,8 +1893,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1746,8 +1932,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1779,8 +1971,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1812,8 +2010,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1842,13 +2046,19 @@
         <v>5172620.330729179</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>1.030819637589549</v>
       </c>
       <c r="M43" t="inlineStr"/>
     </row>
@@ -1875,7 +2085,7 @@
         <v>5143771.736001439</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1908,7 +2118,7 @@
         <v>4630226.56470144</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1941,7 +2151,7 @@
         <v>4630226.56470144</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1974,7 +2184,7 @@
         <v>4571259.32240144</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2007,7 +2217,7 @@
         <v>4320137.62980144</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2040,7 +2250,7 @@
         <v>4358540.95900144</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2073,7 +2283,7 @@
         <v>4418352.14860144</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2205,7 +2415,7 @@
         <v>4308976.25929067</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2238,7 +2448,7 @@
         <v>4359184.37139067</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2271,7 +2481,7 @@
         <v>4393230.81142121</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2304,7 +2514,7 @@
         <v>4342013.34762121</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2337,7 +2547,7 @@
         <v>4260399.05082121</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2370,7 +2580,7 @@
         <v>4260595.906421211</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2403,7 +2613,7 @@
         <v>4260650.40542121</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2436,7 +2646,7 @@
         <v>4260650.40542121</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2469,7 +2679,7 @@
         <v>4225978.662921211</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2502,7 +2712,7 @@
         <v>4184432.429921211</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2535,7 +2745,7 @@
         <v>4108634.386021211</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2568,7 +2778,7 @@
         <v>4132789.116121211</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2601,7 +2811,7 @@
         <v>4054272.423321211</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2634,7 +2844,7 @@
         <v>4020880.535321211</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2667,7 +2877,7 @@
         <v>4020880.535321211</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2700,7 +2910,7 @@
         <v>4065153.710121211</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2733,7 +2943,7 @@
         <v>4059526.049421211</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2898,7 +3108,7 @@
         <v>4251509.372521211</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -12534,7 +12744,7 @@
         <v>3370634.322705695</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12567,7 +12777,7 @@
         <v>3370634.322705695</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12600,7 +12810,7 @@
         <v>3370406.322705695</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12633,7 +12843,7 @@
         <v>3332916.122505695</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12666,7 +12876,7 @@
         <v>3345054.628205695</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12699,7 +12909,7 @@
         <v>3347827.338805695</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12864,7 +13074,7 @@
         <v>3333547.166705695</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12897,7 +13107,7 @@
         <v>3334957.100605695</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12930,7 +13140,7 @@
         <v>3334957.100605695</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12963,7 +13173,7 @@
         <v>3295394.515205695</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -22764,7 +22974,7 @@
         <v>3766670.295978584</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26361,7 +26571,7 @@
         <v>5091171.305331926</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
